--- a/angajati_export.xlsx
+++ b/angajati_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,6 +1102,131 @@
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1900915115111</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Florin</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>39</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1986-07-29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>casatorit</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0777765411</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>malos.florin@yahoo.com</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Jud. CS. oras Resita Str. Dr. Aoleo Nr. 66 COD 325300</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Liceu</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>nedeterminat</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Electrician</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Productie</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>RO32BRDE</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>5850</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Activ</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
